--- a/biology/Zoologie/Acanthodactylus_boskianus/Acanthodactylus_boskianus.xlsx
+++ b/biology/Zoologie/Acanthodactylus_boskianus/Acanthodactylus_boskianus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acanthodactylus boskianus est une espèce de sauriens de la famille des Lacertidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acanthodactylus boskianus est une espèce de sauriens de la famille des Lacertidae.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette espèce se rencontre :
 en Mauritanie, au Maroc, en Algérie, au Mali, au Niger, au Nigeria, en Tunisie, en Libye, en Égypte, au Soudan, en Érythrée, en Éthiopie ;
-en Israël, en Syrie, en Turquie, en Jordanie, en Arabie saoudite, en Oman, aux Émirats arabes unis, au Koweït, en Irak et en Iran[1].</t>
+en Israël, en Syrie, en Turquie, en Jordanie, en Arabie saoudite, en Oman, aux Émirats arabes unis, au Koweït, en Irak et en Iran.</t>
         </is>
       </c>
     </row>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (5 mai 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (5 mai 2015) :
 Acanthodactylus boskianus asper (Audouin, 1827)
 Acanthodactylus boskianus boskianus (Daudin, 1802)
 Acanthodactylus boskianus euphraticus Boulenger, 1919
@@ -578,7 +594,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Audouin, 1827 : Explication sommaire des planches de reptiles (supplément), publiées par Jules-César Savigny, membre de l'Institut; offrant un exposé des caractères naturels des genres, avec la distinction des espèces. Description de l'Égypte, Histoire naturelle, Volume I, p. 97–140 (texte intégral).
 Audouin, 1829 : Explication sommaire des planches de reptiles (supplément), publiées par Jules-César Savigny, membre de l'Institut; offrant un exposé des caractères naturels des genres, avec la distinction des espèces. Description de l'Égypte, ou Recueil des Observations et des Recherches qui ont été faites en Égypte pendant l'expédition de l'Armée Française, publie par les Ordres de sa Majesté l'Empereur Napoléon le Grand, Histoire Naturelle, vol. 1, fasc. 4, p. 161-184
